--- a/accuracy.xlsx
+++ b/accuracy.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>18.26256884160484</v>
+        <v>13.64818558614697</v>
       </c>
       <c r="F2">
-        <v>0.03618536741184053</v>
+        <v>0.4683094748700916</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>16.02257707797232</v>
+        <v>14.4296301980996</v>
       </c>
       <c r="F3">
-        <v>0.2581185325762045</v>
+        <v>0.4056811776646512</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>18.26256884160484</v>
+        <v>13.64818558614697</v>
       </c>
       <c r="F4">
-        <v>0.03618536741184053</v>
+        <v>0.4683094748700916</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>16.02257707797232</v>
+        <v>14.4296301980996</v>
       </c>
       <c r="F5">
-        <v>0.2581185325762045</v>
+        <v>0.4056811776646512</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.509682886320629</v>
+        <v>4.088442789484459</v>
       </c>
       <c r="F6">
-        <v>-0.05596039582503498</v>
+        <v>0.4879716359744246</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>6.708778680476127</v>
+        <v>4.007267787298389</v>
       </c>
       <c r="F7">
-        <v>0.1572643553301203</v>
+        <v>0.5081021772429983</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.509682886320627</v>
+        <v>4.088442789484461</v>
       </c>
       <c r="F8">
-        <v>-0.05596039582503431</v>
+        <v>0.4879716359744241</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>6.708778680476125</v>
+        <v>4.007267787298387</v>
       </c>
       <c r="F9">
-        <v>0.1572643553301208</v>
+        <v>0.5081021772429987</v>
       </c>
     </row>
   </sheetData>

--- a/accuracy.xlsx
+++ b/accuracy.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>13.64818558614697</v>
+        <v>15.76302465627317</v>
       </c>
       <c r="F2">
-        <v>0.4683094748700916</v>
+        <v>0.2907682126259196</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>14.4296301980996</v>
+        <v>14.85264877119661</v>
       </c>
       <c r="F3">
-        <v>0.4056811776646512</v>
+        <v>0.3703243418164504</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>13.64818558614697</v>
+        <v>15.76302465627317</v>
       </c>
       <c r="F4">
-        <v>0.4683094748700916</v>
+        <v>0.2907682126259196</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>14.4296301980996</v>
+        <v>14.85264877119661</v>
       </c>
       <c r="F5">
-        <v>0.4056811776646512</v>
+        <v>0.3703243418164504</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4.088442789484459</v>
+        <v>7.505490431949389</v>
       </c>
       <c r="F6">
-        <v>0.4879716359744246</v>
+        <v>-0.05924530793452165</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>4.007267787298389</v>
+        <v>7.032741527332488</v>
       </c>
       <c r="F7">
-        <v>0.5081021772429983</v>
+        <v>0.06998980380056963</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>4.088442789484461</v>
+        <v>7.505490431949386</v>
       </c>
       <c r="F8">
-        <v>0.4879716359744241</v>
+        <v>-0.05924530793452076</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>4.007267787298387</v>
+        <v>7.032741527332488</v>
       </c>
       <c r="F9">
-        <v>0.5081021772429987</v>
+        <v>0.06998980380056963</v>
       </c>
     </row>
   </sheetData>
